--- a/Saída_de_dados_linear_media.xlsx
+++ b/Saída_de_dados_linear_media.xlsx
@@ -420,13 +420,13 @@
         <v>0.9177171301248951</v>
       </c>
       <c r="D2">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
       <c r="E2">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F2">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>1.941724835067941</v>
       </c>
       <c r="D3">
-        <v>1.817249478202971</v>
+        <v>1.817249478202972</v>
       </c>
       <c r="E3">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F3">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>2.905288457330849</v>
       </c>
       <c r="D4">
-        <v>2.806501887974765</v>
+        <v>2.806501887974767</v>
       </c>
       <c r="E4">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F4">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>3.918477415347835</v>
       </c>
       <c r="D5">
-        <v>3.795754297746558</v>
+        <v>3.79575429774656</v>
       </c>
       <c r="E5">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F5">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>4.249598754896356</v>
       </c>
       <c r="D6">
-        <v>4.785006707518352</v>
+        <v>4.785006707518354</v>
       </c>
       <c r="E6">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F6">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>5.776278374817095</v>
       </c>
       <c r="D7">
-        <v>5.774259117290145</v>
+        <v>5.774259117290149</v>
       </c>
       <c r="E7">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F7">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>6.529292607871766</v>
       </c>
       <c r="D8">
-        <v>6.763511527061939</v>
+        <v>6.763511527061943</v>
       </c>
       <c r="E8">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F8">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>7.813849389496461</v>
       </c>
       <c r="D9">
-        <v>7.752763936833732</v>
+        <v>7.752763936833738</v>
       </c>
       <c r="E9">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F9">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>8.945314583117502</v>
       </c>
       <c r="D10">
-        <v>8.742016346605526</v>
+        <v>8.742016346605531</v>
       </c>
       <c r="E10">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F10">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>9.613809823443747</v>
       </c>
       <c r="D11">
-        <v>9.731268756377318</v>
+        <v>9.731268756377325</v>
       </c>
       <c r="E11">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F11">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>10.90549891867719</v>
       </c>
       <c r="D12">
-        <v>10.72052116614911</v>
+        <v>10.72052116614912</v>
       </c>
       <c r="E12">
-        <v>0.9892524097717935</v>
+        <v>0.9892524097717942</v>
       </c>
       <c r="F12">
-        <v>0.8279970684311776</v>
+        <v>0.8279970684311779</v>
       </c>
     </row>
   </sheetData>
